--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551418.1852114163</v>
+        <v>549530.6036950145</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12409484.73816</v>
+        <v>12409484.73815999</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.721010797084</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>184.5965052633715</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>28.89264992377371</v>
       </c>
       <c r="R4" t="n">
-        <v>33.84234274505316</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>88.1153147909455</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>307.7945329233992</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>88.47572607734827</v>
       </c>
       <c r="H7" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>99.19538242482531</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>333.2312797391936</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.7926293335069</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>7.270565549321646</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.0736637227931</v>
+        <v>66.1408521553538</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82.90903434524392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>89.09646007723565</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>22.42494054428911</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>41.66054700195338</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>80.75310111984408</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>88.61733667523946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151912</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056517</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>78.6753126994827</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>49.40022131648171</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357147</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523551</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.118858921979</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C2" t="n">
-        <v>1037.156341981567</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2334.510486904745</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2080.748701542836</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921979</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.9444893339355</v>
       </c>
       <c r="R4" t="n">
-        <v>693.9447996154718</v>
+        <v>698.9444893339355</v>
       </c>
       <c r="S4" t="n">
-        <v>693.9447996154718</v>
+        <v>484.6560661520982</v>
       </c>
       <c r="T4" t="n">
-        <v>693.9447996154718</v>
+        <v>257.3478788207</v>
       </c>
       <c r="U4" t="n">
-        <v>693.9447996154718</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V4" t="n">
-        <v>693.9447996154718</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>644.477951075587</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.217123115521</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y5" t="n">
-        <v>1031.077791139709</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="C7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="D7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="E7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="F7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="G7" t="n">
-        <v>76.52029211334911</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334911</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.52029211334911</v>
+        <v>325.2978374347316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1880.609977906362</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1880.609977906362</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1522.344279299612</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1136.556026701368</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>725.57012191176</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>307.6063138099469</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2267.209817970484</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y8" t="n">
-        <v>2267.209817970484</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4893,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407.4645182330357</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>407.4645182330357</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.7517393246784</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246784</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>846.5338693662259</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W13" t="n">
-        <v>846.5338693662259</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X13" t="n">
-        <v>618.5443184682085</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y13" t="n">
-        <v>397.7517393246784</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>328.8766843813093</v>
+        <v>413.0432218861033</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.002216560966</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550791</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550791</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X16" t="n">
-        <v>731.3177283550791</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.525149211549</v>
+        <v>413.0432218861033</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.5850465240054</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>696.5850465240054</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>546.4684071116696</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>546.4684071116696</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>399.5784596137593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>231.4031379335799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1345.759806511694</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1345.759806511694</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1345.759806511694</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240054</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240054</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.5850465240054</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.5250474102528</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>394.5250474102528</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102528</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102528</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1409.403809269782</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1120.27517048334</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>865.5906822774531</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W22" t="n">
-        <v>576.1735122404925</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X22" t="n">
-        <v>576.1735122404925</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.1735122404925</v>
+        <v>475.7924673804755</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,7 +6084,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6181,16 +6181,16 @@
         <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336715</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,16 +6461,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619129</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542218</v>
+        <v>611.7611155708657</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542218</v>
+        <v>498.5857979243297</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542218</v>
+        <v>498.5857979243297</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542218</v>
+        <v>406.4335696233074</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>315.304487406768</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>202.8900310079592</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818961</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652497</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030906</v>
+        <v>737.6487151197346</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,43 +6920,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,28 +7567,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,16 +7631,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,31 +7649,31 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>114.0639796010349</v>
+        <v>185.9967911684742</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>84.33778675338391</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>129.4881932748592</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>126.488887823247</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>156.2602629816499</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>99.07887906209322</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>132.9302243831498</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338614</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338542</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.54247869489125</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>44.31035042249727</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
@@ -26329,10 +26329,10 @@
         <v>332374.7007770526</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="J2" t="n">
         <v>332374.7007770524</v>
@@ -26341,19 +26341,19 @@
         <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923201</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923201</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007491</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007505</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007538</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007487</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.3541702041</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732792</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732798</v>
       </c>
-      <c r="N4" t="n">
-        <v>30335.51889732799</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,13 +26491,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-471801.2538015544</v>
+        <v>-471801.2538015542</v>
       </c>
       <c r="C6" t="n">
-        <v>118166.6254129904</v>
+        <v>118166.6254129903</v>
       </c>
       <c r="D6" t="n">
         <v>118166.6254129902</v>
       </c>
       <c r="E6" t="n">
-        <v>-292689.3933045678</v>
+        <v>-292786.8524305398</v>
       </c>
       <c r="F6" t="n">
-        <v>232470.6431723284</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="G6" t="n">
-        <v>232470.6431723285</v>
+        <v>232373.1840463564</v>
       </c>
       <c r="H6" t="n">
-        <v>232470.6431723284</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="I6" t="n">
-        <v>232470.6431723285</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="J6" t="n">
-        <v>56047.42397973521</v>
+        <v>55949.9648537632</v>
       </c>
       <c r="K6" t="n">
-        <v>178926.6487402071</v>
+        <v>178908.1550022728</v>
       </c>
       <c r="L6" t="n">
-        <v>210549.2206741005</v>
+        <v>210549.2206741</v>
       </c>
       <c r="M6" t="n">
-        <v>86091.11224112989</v>
+        <v>86091.11224112965</v>
       </c>
       <c r="N6" t="n">
-        <v>220892.1274749668</v>
+        <v>220892.127474967</v>
       </c>
       <c r="O6" t="n">
         <v>220892.127474967</v>
       </c>
       <c r="P6" t="n">
-        <v>176729.5221721211</v>
+        <v>176729.5221721214</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108339</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>201.962030823599</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.85181509428628</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0.2301000311405978</v>
       </c>
       <c r="R4" t="n">
-        <v>112.8228492351047</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>277.1575769800621</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>61.9365677550698</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>78.83407618170264</v>
       </c>
       <c r="H7" t="n">
-        <v>133.8193516517403</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7273903395318</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>36.49982093927548</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.039350848430416</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3140878027731</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973758</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
